--- a/workfile/锐安项目文档/方案页面原型及修改/损益表设计方案-v1.1.xlsx
+++ b/workfile/锐安项目文档/方案页面原型及修改/损益表设计方案-v1.1.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -418,15 +418,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>76835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:colOff>2095500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,7 +443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828675" y="635"/>
+          <a:off x="809625" y="76835"/>
           <a:ext cx="8086725" cy="1437640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -836,7 +836,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
